--- a/Data/PowerCap_MI_MS_CF.xlsx
+++ b/Data/PowerCap_MI_MS_CF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B15AA32-37F5-40C9-98DA-C22A685B3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F8EEA-4A0F-4186-8ACD-23AE248092D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="26" r:id="rId1"/>
@@ -1641,9 +1641,6 @@
     <t>Technical-Remaining</t>
   </si>
   <si>
-    <t>Technical -Ecological</t>
-  </si>
-  <si>
     <t>Economic-Remaining</t>
   </si>
   <si>
@@ -1930,6 +1927,9 @@
   </si>
   <si>
     <t>PWR Open LCA techno</t>
+  </si>
+  <si>
+    <t>Technical-Ecological</t>
   </si>
 </sst>
 </file>
@@ -4200,60 +4200,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -4268,6 +4214,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4341,28 +4290,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4395,6 +4374,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4407,9 +4422,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4417,18 +4429,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4530,6 +4530,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4551,29 +4563,14 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4591,6 +4588,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5202,144 +5202,144 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="554" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="554" t="s">
         <v>350</v>
-      </c>
-      <c r="B1" s="554" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="625" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="626"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="580" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="580" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="580" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="580" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="627" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" s="627"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="581" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>362</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="581" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="581" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>366</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="581" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="581" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="628" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B13" s="628"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="582" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>373</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="582" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="583"/>
       <c r="B16" s="562" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="583" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="629" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B18" s="629"/>
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="584" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5433,63 +5433,63 @@
         <v>13</v>
       </c>
       <c r="I1" s="140"/>
-      <c r="J1" s="630" t="s">
+      <c r="J1" s="668" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="631"/>
-      <c r="L1" s="631"/>
-      <c r="M1" s="631"/>
-      <c r="N1" s="631"/>
-      <c r="O1" s="631"/>
-      <c r="P1" s="632"/>
-      <c r="Q1" s="670" t="s">
+      <c r="K1" s="669"/>
+      <c r="L1" s="669"/>
+      <c r="M1" s="669"/>
+      <c r="N1" s="669"/>
+      <c r="O1" s="669"/>
+      <c r="P1" s="670"/>
+      <c r="Q1" s="653" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="666" t="s">
+      <c r="R1" s="649" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="668" t="s">
+      <c r="S1" s="651" t="s">
         <v>134</v>
       </c>
       <c r="T1" s="366" t="s">
         <v>268</v>
       </c>
       <c r="U1" s="94"/>
-      <c r="V1" s="650" t="s">
+      <c r="V1" s="632" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="651"/>
-      <c r="X1" s="651"/>
-      <c r="Y1" s="651"/>
-      <c r="Z1" s="651"/>
-      <c r="AA1" s="652"/>
-      <c r="AB1" s="639" t="s">
+      <c r="W1" s="633"/>
+      <c r="X1" s="633"/>
+      <c r="Y1" s="633"/>
+      <c r="Z1" s="633"/>
+      <c r="AA1" s="634"/>
+      <c r="AB1" s="675" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="672" t="s">
+      <c r="AC1" s="655" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="633" t="s">
+      <c r="AD1" s="671" t="s">
         <v>134</v>
       </c>
       <c r="AE1" s="366" t="s">
         <v>5</v>
       </c>
       <c r="AF1" s="6"/>
-      <c r="AG1" s="659" t="s">
+      <c r="AG1" s="642" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="660"/>
-      <c r="AI1" s="660"/>
-      <c r="AJ1" s="660"/>
-      <c r="AK1" s="661"/>
-      <c r="AL1" s="639" t="s">
+      <c r="AH1" s="643"/>
+      <c r="AI1" s="643"/>
+      <c r="AJ1" s="643"/>
+      <c r="AK1" s="644"/>
+      <c r="AL1" s="675" t="s">
         <v>178</v>
       </c>
       <c r="AM1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="AN1" s="637" t="s">
+      <c r="AN1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="AO1" s="366" t="s">
@@ -5502,52 +5502,52 @@
       <c r="AR1" s="446" t="s">
         <v>9</v>
       </c>
-      <c r="AS1" s="664" t="s">
+      <c r="AS1" s="647" t="s">
         <v>177</v>
       </c>
       <c r="AT1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" s="637" t="s">
+      <c r="AU1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="AV1" s="366" t="s">
         <v>268</v>
       </c>
-      <c r="AX1" s="662" t="s">
+      <c r="AX1" s="645" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" s="663"/>
-      <c r="AZ1" s="676" t="s">
+      <c r="AY1" s="646"/>
+      <c r="AZ1" s="659" t="s">
         <v>171</v>
       </c>
-      <c r="BA1" s="674" t="s">
+      <c r="BA1" s="657" t="s">
         <v>165</v>
       </c>
-      <c r="BB1" s="654" t="s">
+      <c r="BB1" s="637" t="s">
         <v>10</v>
       </c>
-      <c r="BC1" s="655"/>
-      <c r="BD1" s="656" t="s">
+      <c r="BC1" s="638"/>
+      <c r="BD1" s="639" t="s">
         <v>162</v>
       </c>
-      <c r="BE1" s="657"/>
-      <c r="BF1" s="642" t="s">
+      <c r="BE1" s="640"/>
+      <c r="BF1" s="662" t="s">
         <v>173</v>
       </c>
-      <c r="BG1" s="644" t="s">
+      <c r="BG1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="BH1" s="646" t="s">
+      <c r="BH1" s="666" t="s">
         <v>134</v>
       </c>
-      <c r="BI1" s="642" t="s">
+      <c r="BI1" s="662" t="s">
         <v>174</v>
       </c>
-      <c r="BJ1" s="644" t="s">
+      <c r="BJ1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="BK1" s="646" t="s">
+      <c r="BK1" s="666" t="s">
         <v>134</v>
       </c>
       <c r="BL1" s="366" t="s">
@@ -5567,14 +5567,14 @@
       <c r="D2" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="648" t="s">
+      <c r="E2" s="630" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="649"/>
-      <c r="G2" s="658" t="s">
+      <c r="F2" s="631"/>
+      <c r="G2" s="641" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="658"/>
+      <c r="H2" s="641"/>
       <c r="I2" s="140"/>
       <c r="J2" s="405" t="s">
         <v>169</v>
@@ -5597,9 +5597,9 @@
       <c r="P2" s="406" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" s="671"/>
-      <c r="R2" s="667"/>
-      <c r="S2" s="669"/>
+      <c r="Q2" s="654"/>
+      <c r="R2" s="650"/>
+      <c r="S2" s="652"/>
       <c r="T2" s="392" t="s">
         <v>14</v>
       </c>
@@ -5622,9 +5622,9 @@
       <c r="AA2" s="435" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="640"/>
-      <c r="AC2" s="673"/>
-      <c r="AD2" s="634"/>
+      <c r="AB2" s="676"/>
+      <c r="AC2" s="656"/>
+      <c r="AD2" s="672"/>
       <c r="AE2" s="377" t="s">
         <v>16</v>
       </c>
@@ -5644,9 +5644,9 @@
       <c r="AK2" s="471" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="641"/>
-      <c r="AM2" s="636"/>
-      <c r="AN2" s="638"/>
+      <c r="AL2" s="677"/>
+      <c r="AM2" s="673"/>
+      <c r="AN2" s="674"/>
       <c r="AO2" s="472" t="s">
         <v>16</v>
       </c>
@@ -5657,9 +5657,9 @@
       <c r="AR2" s="447" t="s">
         <v>199</v>
       </c>
-      <c r="AS2" s="665"/>
-      <c r="AT2" s="653"/>
-      <c r="AU2" s="677"/>
+      <c r="AS2" s="648"/>
+      <c r="AT2" s="636"/>
+      <c r="AU2" s="661"/>
       <c r="AV2" s="379" t="s">
         <v>229</v>
       </c>
@@ -5670,8 +5670,8 @@
       <c r="AY2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AZ2" s="656"/>
-      <c r="BA2" s="675"/>
+      <c r="AZ2" s="639"/>
+      <c r="BA2" s="658"/>
       <c r="BB2" s="9" t="s">
         <v>19</v>
       </c>
@@ -5684,12 +5684,12 @@
       <c r="BE2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="BF2" s="643"/>
-      <c r="BG2" s="645"/>
-      <c r="BH2" s="647"/>
-      <c r="BI2" s="643"/>
-      <c r="BJ2" s="645"/>
-      <c r="BK2" s="647"/>
+      <c r="BF2" s="663"/>
+      <c r="BG2" s="665"/>
+      <c r="BH2" s="667"/>
+      <c r="BI2" s="663"/>
+      <c r="BJ2" s="665"/>
+      <c r="BK2" s="667"/>
       <c r="BL2" s="378"/>
       <c r="BM2" s="140"/>
       <c r="BN2" s="140"/>
@@ -6907,7 +6907,7 @@
         <v>692</v>
       </c>
       <c r="BL11" s="224" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:219" x14ac:dyDescent="0.35">
@@ -11571,6 +11571,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BK1:BK2"/>
+    <mergeCell ref="BI1:BI2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AT1:AT2"/>
@@ -11587,18 +11599,6 @@
     <mergeCell ref="BA1:BA2"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BK1:BK2"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AL1:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11646,37 +11646,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="644" t="s">
+      <c r="B1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="646" t="s">
+      <c r="C1" s="666" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="682" t="s">
+      <c r="D1" s="692" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="644" t="s">
+      <c r="E1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="646" t="s">
+      <c r="F1" s="666" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="682" t="s">
+      <c r="G1" s="692" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="644" t="s">
+      <c r="H1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="646" t="s">
+      <c r="I1" s="666" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="682" t="s">
+      <c r="J1" s="692" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="644" t="s">
+      <c r="K1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="646" t="s">
+      <c r="L1" s="666" t="s">
         <v>134</v>
       </c>
       <c r="M1" s="524" t="s">
@@ -11686,47 +11686,47 @@
       <c r="O1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="691" t="s">
+      <c r="P1" s="684" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" s="691"/>
-      <c r="R1" s="691"/>
-      <c r="S1" s="691"/>
-      <c r="T1" s="691"/>
-      <c r="U1" s="691" t="s">
+      <c r="Q1" s="684"/>
+      <c r="R1" s="684"/>
+      <c r="S1" s="684"/>
+      <c r="T1" s="684"/>
+      <c r="U1" s="684" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="691"/>
-      <c r="W1" s="688" t="s">
+      <c r="V1" s="684"/>
+      <c r="W1" s="681" t="s">
         <v>166</v>
       </c>
-      <c r="X1" s="688"/>
-      <c r="Y1" s="688" t="s">
+      <c r="X1" s="681"/>
+      <c r="Y1" s="681" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="688"/>
-      <c r="AA1" s="692" t="s">
+      <c r="Z1" s="681"/>
+      <c r="AA1" s="685" t="s">
         <v>162</v>
       </c>
-      <c r="AB1" s="693"/>
+      <c r="AB1" s="686"/>
       <c r="AC1" t="s">
         <v>169</v>
       </c>
-      <c r="AD1" s="694" t="s">
+      <c r="AD1" s="687" t="s">
         <v>190</v>
       </c>
-      <c r="AE1" s="694"/>
-      <c r="AF1" s="685" t="s">
+      <c r="AE1" s="687"/>
+      <c r="AF1" s="678" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="686"/>
-      <c r="AH1" s="686"/>
-      <c r="AI1" s="687"/>
-      <c r="AJ1" s="688" t="s">
+      <c r="AG1" s="679"/>
+      <c r="AH1" s="679"/>
+      <c r="AI1" s="680"/>
+      <c r="AJ1" s="681" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="688"/>
-      <c r="AL1" s="688"/>
+      <c r="AK1" s="681"/>
+      <c r="AL1" s="681"/>
       <c r="AM1" s="13" t="s">
         <v>79</v>
       </c>
@@ -11766,17 +11766,17 @@
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="680"/>
-      <c r="C2" s="681"/>
-      <c r="D2" s="683"/>
-      <c r="E2" s="645"/>
-      <c r="F2" s="647"/>
-      <c r="G2" s="684"/>
-      <c r="H2" s="645"/>
-      <c r="I2" s="647"/>
-      <c r="J2" s="684"/>
-      <c r="K2" s="645"/>
-      <c r="L2" s="647"/>
+      <c r="B2" s="690"/>
+      <c r="C2" s="691"/>
+      <c r="D2" s="693"/>
+      <c r="E2" s="665"/>
+      <c r="F2" s="667"/>
+      <c r="G2" s="694"/>
+      <c r="H2" s="665"/>
+      <c r="I2" s="667"/>
+      <c r="J2" s="694"/>
+      <c r="K2" s="665"/>
+      <c r="L2" s="667"/>
       <c r="M2" s="525" t="s">
         <v>250</v>
       </c>
@@ -13729,10 +13729,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="689">
+      <c r="U18" s="682">
         <v>99</v>
       </c>
-      <c r="V18" s="690"/>
+      <c r="V18" s="683"/>
       <c r="W18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14555,10 +14555,10 @@
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="678" t="s">
+      <c r="P25" s="688" t="s">
         <v>235</v>
       </c>
-      <c r="Q25" s="679"/>
+      <c r="Q25" s="689"/>
       <c r="R25" s="9" t="s">
         <v>236</v>
       </c>
@@ -21221,15 +21221,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -21242,6 +21233,15 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <conditionalFormatting sqref="P3:S3">
     <cfRule type="colorScale" priority="1">
@@ -21378,42 +21378,42 @@
       <c r="A1" s="399" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="658" t="s">
+      <c r="B1" s="641" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="658" t="s">
+      <c r="C1" s="641" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="703" t="s">
+      <c r="D1" s="695" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="699" t="s">
+      <c r="E1" s="697" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="699" t="s">
-        <v>427</v>
-      </c>
-      <c r="G1" s="699"/>
-      <c r="H1" s="699"/>
-      <c r="I1" s="703" t="s">
+      <c r="F1" s="697" t="s">
+        <v>426</v>
+      </c>
+      <c r="G1" s="697"/>
+      <c r="H1" s="697"/>
+      <c r="I1" s="695" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="699" t="s">
+      <c r="J1" s="697" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="699"/>
-      <c r="L1" s="700" t="s">
-        <v>433</v>
-      </c>
-      <c r="M1" s="701"/>
-      <c r="N1" s="702"/>
-      <c r="O1" s="644" t="s">
+      <c r="K1" s="697"/>
+      <c r="L1" s="704" t="s">
+        <v>432</v>
+      </c>
+      <c r="M1" s="705"/>
+      <c r="N1" s="706"/>
+      <c r="O1" s="664" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="646" t="s">
+      <c r="P1" s="666" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="695" t="s">
+      <c r="Q1" s="700" t="s">
         <v>131</v>
       </c>
     </row>
@@ -21421,20 +21421,20 @@
       <c r="A2" s="400" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="658"/>
-      <c r="C2" s="706"/>
-      <c r="D2" s="658"/>
-      <c r="E2" s="705"/>
+      <c r="B2" s="641"/>
+      <c r="C2" s="699"/>
+      <c r="D2" s="641"/>
+      <c r="E2" s="698"/>
       <c r="F2" s="600" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G2" s="600" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" s="600" t="s">
         <v>428</v>
       </c>
-      <c r="H2" s="600" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="704"/>
+      <c r="I2" s="696"/>
       <c r="J2" s="16" t="s">
         <v>64</v>
       </c>
@@ -21442,17 +21442,17 @@
         <v>65</v>
       </c>
       <c r="L2" s="600" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M2" s="600" t="s">
+        <v>427</v>
+      </c>
+      <c r="N2" s="600" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="600" t="s">
-        <v>429</v>
-      </c>
-      <c r="O2" s="698"/>
-      <c r="P2" s="697"/>
-      <c r="Q2" s="696"/>
+      <c r="O2" s="703"/>
+      <c r="P2" s="702"/>
+      <c r="Q2" s="701"/>
     </row>
     <row r="3" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="220" t="s">
@@ -21966,7 +21966,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="224" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -22084,7 +22084,7 @@
         <v>71</v>
       </c>
       <c r="Q20" s="224" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -22360,7 +22360,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="Q28" s="224" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -22667,7 +22667,7 @@
         <v>87</v>
       </c>
       <c r="Q37" s="224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -23063,17 +23063,17 @@
     <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -23919,7 +23919,7 @@
       <c r="F1" s="721" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="639" t="s">
+      <c r="G1" s="675" t="s">
         <v>195</v>
       </c>
       <c r="H1" s="731" t="s">
@@ -26192,7 +26192,7 @@
       <c r="G1" s="738" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="639" t="s">
+      <c r="H1" s="675" t="s">
         <v>189</v>
       </c>
       <c r="I1" s="635" t="s">
@@ -26300,7 +26300,7 @@
       </c>
       <c r="G2" s="739"/>
       <c r="H2" s="730"/>
-      <c r="I2" s="653"/>
+      <c r="I2" s="636"/>
       <c r="J2" s="735"/>
       <c r="K2" s="377" t="s">
         <v>158</v>
@@ -27349,72 +27349,72 @@
         <v>138</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="740" t="s">
+      <c r="D1" s="744" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="670" t="s">
+      <c r="E1" s="745"/>
+      <c r="F1" s="745"/>
+      <c r="G1" s="746"/>
+      <c r="H1" s="653" t="s">
         <v>183</v>
       </c>
       <c r="I1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="637" t="s">
+      <c r="J1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="K1" s="177" t="s">
         <v>131</v>
       </c>
       <c r="L1" s="6"/>
-      <c r="M1" s="747" t="s">
+      <c r="M1" s="740" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="748"/>
-      <c r="O1" s="748"/>
-      <c r="P1" s="749"/>
-      <c r="Q1" s="639" t="s">
+      <c r="N1" s="741"/>
+      <c r="O1" s="741"/>
+      <c r="P1" s="742"/>
+      <c r="Q1" s="675" t="s">
         <v>184</v>
       </c>
       <c r="R1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="637" t="s">
+      <c r="S1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="T1" s="177" t="s">
         <v>131</v>
       </c>
       <c r="U1" s="6"/>
-      <c r="V1" s="743" t="s">
+      <c r="V1" s="747" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="744"/>
-      <c r="X1" s="639" t="s">
+      <c r="W1" s="748"/>
+      <c r="X1" s="675" t="s">
         <v>185</v>
       </c>
       <c r="Y1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="637" t="s">
+      <c r="Z1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="AA1" s="177" t="s">
         <v>131</v>
       </c>
       <c r="AB1" s="140"/>
-      <c r="AC1" s="745" t="s">
+      <c r="AC1" s="749" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="746"/>
-      <c r="AE1" s="639" t="s">
+      <c r="AD1" s="750"/>
+      <c r="AE1" s="675" t="s">
         <v>186</v>
       </c>
       <c r="AF1" s="635" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="637" t="s">
+      <c r="AG1" s="660" t="s">
         <v>134</v>
       </c>
       <c r="AH1" s="177" t="s">
@@ -27452,9 +27452,9 @@
       <c r="G2" s="276" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="750"/>
-      <c r="I2" s="653"/>
-      <c r="J2" s="677"/>
+      <c r="H2" s="743"/>
+      <c r="I2" s="636"/>
+      <c r="J2" s="661"/>
       <c r="K2" s="292" t="s">
         <v>127</v>
       </c>
@@ -27472,8 +27472,8 @@
         <v>190</v>
       </c>
       <c r="Q2" s="730"/>
-      <c r="R2" s="653"/>
-      <c r="S2" s="677"/>
+      <c r="R2" s="636"/>
+      <c r="S2" s="661"/>
       <c r="T2" s="292" t="s">
         <v>127</v>
       </c>
@@ -27485,8 +27485,8 @@
         <v>190</v>
       </c>
       <c r="X2" s="730"/>
-      <c r="Y2" s="653"/>
-      <c r="Z2" s="677"/>
+      <c r="Y2" s="636"/>
+      <c r="Z2" s="661"/>
       <c r="AA2" s="292" t="s">
         <v>127</v>
       </c>
@@ -27498,8 +27498,8 @@
         <v>166</v>
       </c>
       <c r="AE2" s="730"/>
-      <c r="AF2" s="653"/>
-      <c r="AG2" s="677"/>
+      <c r="AF2" s="636"/>
+      <c r="AG2" s="661"/>
       <c r="AH2" s="292" t="s">
         <v>127</v>
       </c>
@@ -31713,6 +31713,12 @@
     <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="AG1:AG2"/>
@@ -31723,12 +31729,6 @@
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -31767,7 +31767,7 @@
       <c r="C1" s="751"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="758" t="s">
+      <c r="A2" s="757" t="s">
         <v>312</v>
       </c>
       <c r="B2" s="555" t="s">
@@ -31778,7 +31778,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="759"/>
+      <c r="A3" s="758"/>
       <c r="B3" s="556" t="s">
         <v>206</v>
       </c>
@@ -31787,7 +31787,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="759"/>
+      <c r="A4" s="758"/>
       <c r="B4" s="555" t="s">
         <v>198</v>
       </c>
@@ -31796,7 +31796,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="759"/>
+      <c r="A5" s="758"/>
       <c r="B5" s="555" t="s">
         <v>267</v>
       </c>
@@ -31805,7 +31805,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="759"/>
+      <c r="A6" s="758"/>
       <c r="B6" s="558" t="s">
         <v>205</v>
       </c>
@@ -31814,7 +31814,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="759"/>
+      <c r="A7" s="758"/>
       <c r="B7" s="555" t="s">
         <v>264</v>
       </c>
@@ -31823,7 +31823,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="759"/>
+      <c r="A8" s="758"/>
       <c r="B8" s="559" t="s">
         <v>164</v>
       </c>
@@ -31832,7 +31832,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="759"/>
+      <c r="A9" s="758"/>
       <c r="B9" s="555" t="s">
         <v>169</v>
       </c>
@@ -31841,7 +31841,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="759"/>
+      <c r="A10" s="758"/>
       <c r="B10" s="560" t="s">
         <v>170</v>
       </c>
@@ -31850,7 +31850,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="759"/>
+      <c r="A11" s="758"/>
       <c r="B11" s="555" t="s">
         <v>263</v>
       </c>
@@ -31859,7 +31859,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="759"/>
+      <c r="A12" s="758"/>
       <c r="B12" s="555" t="s">
         <v>263</v>
       </c>
@@ -31868,7 +31868,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="759"/>
+      <c r="A13" s="758"/>
       <c r="B13" s="555" t="s">
         <v>204</v>
       </c>
@@ -31877,7 +31877,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="759"/>
+      <c r="A14" s="758"/>
       <c r="B14" s="555" t="s">
         <v>199</v>
       </c>
@@ -31886,7 +31886,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="759"/>
+      <c r="A15" s="758"/>
       <c r="B15" s="555" t="s">
         <v>262</v>
       </c>
@@ -31895,7 +31895,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="759"/>
+      <c r="A16" s="758"/>
       <c r="B16" s="555" t="s">
         <v>261</v>
       </c>
@@ -31904,7 +31904,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="759"/>
+      <c r="A17" s="758"/>
       <c r="B17" s="556" t="s">
         <v>207</v>
       </c>
@@ -31913,7 +31913,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="759"/>
+      <c r="A18" s="758"/>
       <c r="B18" s="555" t="s">
         <v>209</v>
       </c>
@@ -31922,7 +31922,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="759"/>
+      <c r="A19" s="758"/>
       <c r="B19" s="555" t="s">
         <v>212</v>
       </c>
@@ -31931,7 +31931,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="759"/>
+      <c r="A20" s="758"/>
       <c r="B20" s="555" t="s">
         <v>213</v>
       </c>
@@ -31940,7 +31940,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="759"/>
+      <c r="A21" s="758"/>
       <c r="B21" s="555" t="s">
         <v>226</v>
       </c>
@@ -31949,16 +31949,16 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="760"/>
+      <c r="A22" s="759"/>
       <c r="B22" s="555" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C22" s="617" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="754" t="s">
+      <c r="A23" s="752" t="s">
         <v>327</v>
       </c>
       <c r="B23" s="563" t="s">
@@ -31967,7 +31967,7 @@
       <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="754"/>
+      <c r="A24" s="752"/>
       <c r="B24" s="564" t="s">
         <v>164</v>
       </c>
@@ -31976,21 +31976,21 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="754"/>
+      <c r="A25" s="752"/>
       <c r="B25" s="564" t="s">
         <v>314</v>
       </c>
       <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="754"/>
+      <c r="A26" s="752"/>
       <c r="B26" s="563" t="s">
         <v>315</v>
       </c>
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="754"/>
+      <c r="A27" s="752"/>
       <c r="B27" s="564" t="s">
         <v>316</v>
       </c>
@@ -32001,7 +32001,7 @@
         <v>337</v>
       </c>
       <c r="B28" s="555" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>336</v>
@@ -32012,45 +32012,45 @@
         <v>338</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="96" t="s">
-        <v>405</v>
-      </c>
-      <c r="B34" s="755" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="754" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="755"/>
+      <c r="D34" s="755"/>
+      <c r="E34" s="755"/>
+      <c r="F34" s="755"/>
+      <c r="G34" s="755"/>
+      <c r="H34" s="756"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="753" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="753"/>
+      <c r="C35" s="554" t="s">
         <v>383</v>
       </c>
-      <c r="C34" s="756"/>
-      <c r="D34" s="756"/>
-      <c r="E34" s="756"/>
-      <c r="F34" s="756"/>
-      <c r="G34" s="756"/>
-      <c r="H34" s="757"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="752" t="s">
-        <v>403</v>
-      </c>
-      <c r="B35" s="752"/>
-      <c r="C35" s="554" t="s">
+      <c r="D35" s="554" t="s">
         <v>384</v>
-      </c>
-      <c r="D35" s="554" t="s">
-        <v>385</v>
       </c>
       <c r="E35" s="554" t="s">
         <v>339</v>
       </c>
       <c r="F35" s="554" t="s">
+        <v>385</v>
+      </c>
+      <c r="G35" s="554" t="s">
         <v>386</v>
-      </c>
-      <c r="G35" s="554" t="s">
-        <v>387</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>323</v>
@@ -32058,10 +32058,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="586" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="587" t="s">
         <v>388</v>
-      </c>
-      <c r="B36" s="587" t="s">
-        <v>389</v>
       </c>
       <c r="C36" s="20">
         <v>2.25</v>
@@ -32079,15 +32079,15 @@
         <v>2.36</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="586" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="96" t="s">
         <v>390</v>
-      </c>
-      <c r="B37" s="96" t="s">
-        <v>391</v>
       </c>
       <c r="C37" s="20">
         <v>1.33</v>
@@ -32105,15 +32105,15 @@
         <v>1.39</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B38" s="587" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C38" s="20">
         <v>1.44</v>
@@ -32131,15 +32131,15 @@
         <v>1.58</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C39" s="20">
         <v>0.77</v>
@@ -32157,7 +32157,7 @@
         <v>0.85</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -32165,44 +32165,44 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="751" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B41" s="751"/>
       <c r="C41" s="751"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" s="20">
         <f>1*10^6</f>
         <v>1000000</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B43" s="20">
         <f>365.25*24</f>
         <v>8766</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="20">
         <v>0.45</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -32211,60 +32211,60 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="752" t="s">
+      <c r="A47" s="753" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="753"/>
+      <c r="C47" s="554" t="s">
         <v>398</v>
       </c>
-      <c r="B47" s="752"/>
-      <c r="C47" s="554" t="s">
+      <c r="D47" s="554" t="s">
         <v>399</v>
       </c>
-      <c r="D47" s="554" t="s">
+      <c r="E47" s="753" t="s">
         <v>400</v>
       </c>
-      <c r="E47" s="752" t="s">
+      <c r="F47" s="753"/>
+      <c r="G47" s="554" t="s">
         <v>401</v>
       </c>
-      <c r="F47" s="752"/>
-      <c r="G47" s="554" t="s">
+      <c r="H47" s="760" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="753" t="s">
         <v>402</v>
       </c>
-      <c r="H47" s="753" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="752" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" s="752"/>
+      <c r="B48" s="753"/>
       <c r="C48" s="554" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="554" t="s">
         <v>384</v>
-      </c>
-      <c r="D48" s="554" t="s">
-        <v>385</v>
       </c>
       <c r="E48" s="554" t="s">
         <v>339</v>
       </c>
       <c r="F48" s="554" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" s="554" t="s">
         <v>386</v>
       </c>
-      <c r="G48" s="554" t="s">
-        <v>387</v>
-      </c>
-      <c r="H48" s="753"/>
+      <c r="H48" s="760"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="586" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="587" t="s">
         <v>388</v>
-      </c>
-      <c r="B49" s="587" t="s">
-        <v>389</v>
       </c>
       <c r="C49" s="585">
         <f>C36*$B$42/($B$43*$B$44)</f>
@@ -32292,10 +32292,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="586" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="96" t="s">
         <v>390</v>
-      </c>
-      <c r="B50" s="96" t="s">
-        <v>391</v>
       </c>
       <c r="C50" s="585">
         <f t="shared" ref="C50:G52" si="1">C37*$B$42/($B$43*$B$44)</f>
@@ -32323,10 +32323,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" s="587" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="585">
         <f t="shared" si="1"/>
@@ -32354,10 +32354,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="585">
         <f t="shared" si="1"/>
@@ -32385,16 +32385,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" s="554" t="s">
+        <v>408</v>
+      </c>
+      <c r="C55" s="554" t="s">
         <v>409</v>
-      </c>
-      <c r="C55" s="554" t="s">
-        <v>410</v>
       </c>
       <c r="D55" s="553"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B56" s="554">
         <v>2020</v>
@@ -32417,12 +32417,12 @@
         <v>63.7</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" s="585">
         <v>57.5</v>
@@ -32431,7 +32431,7 @@
         <v>312.7</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -32445,7 +32445,7 @@
         <v>1191.5</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -32453,26 +32453,26 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="751" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" s="751"/>
       <c r="C61" s="751"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B62" s="20">
         <f>365.25*24*3600</f>
         <v>31557600</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" s="588">
         <f>10^9</f>
@@ -32484,13 +32484,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" s="20">
         <v>0.8</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -32498,25 +32498,25 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="553" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B66" s="554" t="s">
+        <v>408</v>
+      </c>
+      <c r="C66" s="554" t="s">
+        <v>414</v>
+      </c>
+      <c r="D66" s="554" t="s">
+        <v>414</v>
+      </c>
+      <c r="E66" s="554" t="s">
         <v>409</v>
-      </c>
-      <c r="C66" s="554" t="s">
-        <v>415</v>
-      </c>
-      <c r="D66" s="554" t="s">
-        <v>415</v>
-      </c>
-      <c r="E66" s="554" t="s">
-        <v>410</v>
       </c>
       <c r="F66" s="553"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="554">
         <v>2020</v>
@@ -32560,7 +32560,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B69" s="14">
         <f t="shared" ref="B69:B70" si="2">B58*$B$63/($B$62*$B$64)</f>
@@ -32611,17 +32611,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" display="https://doi.org/10.1038/s41467-025-56592-5" xr:uid="{303D7B44-E1A4-4EC8-83E3-4A099EF84640}"/>
@@ -33515,7 +33515,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="568" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="578" t="s">
         <v>328</v>
@@ -33556,7 +33556,7 @@
         <v>335</v>
       </c>
       <c r="G2" s="562" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -33579,7 +33579,7 @@
         <v>335</v>
       </c>
       <c r="G3" s="562" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -33602,7 +33602,7 @@
         <v>335</v>
       </c>
       <c r="G4" s="562" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -33625,7 +33625,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33637,16 +33637,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="568" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="568" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" s="568" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D1" s="568" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1" s="568" t="s">
         <v>339</v>
@@ -33684,12 +33684,12 @@
         <v>335</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="550" t="s">
-        <v>342</v>
+        <v>437</v>
       </c>
       <c r="B3" s="565">
         <v>557.71034552690946</v>
@@ -33710,12 +33710,12 @@
         <v>335</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="550" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="565">
         <v>537.42996932593098</v>
@@ -33736,12 +33736,12 @@
         <v>335</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="550" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="565">
         <v>327.02106624077874</v>
@@ -33762,7 +33762,7 @@
         <v>335</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -33777,7 +33777,7 @@
   </sheetPr>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
@@ -33795,7 +33795,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="577" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="572" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="576" t="s">
         <v>290</v>
@@ -33813,16 +33813,16 @@
         <v>294</v>
       </c>
       <c r="G1" s="576" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="576" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="576" t="s">
-        <v>424</v>
-      </c>
       <c r="I1" s="576" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="576" t="s">
         <v>421</v>
-      </c>
-      <c r="J1" s="576" t="s">
-        <v>422</v>
       </c>
       <c r="K1" s="576" t="s">
         <v>297</v>
@@ -33849,13 +33849,13 @@
         <v>304</v>
       </c>
       <c r="S1" s="619" t="s">
+        <v>429</v>
+      </c>
+      <c r="T1" s="619" t="s">
         <v>430</v>
       </c>
-      <c r="T1" s="619" t="s">
+      <c r="U1" s="619" t="s">
         <v>431</v>
-      </c>
-      <c r="U1" s="619" t="s">
-        <v>432</v>
       </c>
       <c r="V1" s="576" t="s">
         <v>243</v>
@@ -35391,7 +35391,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="34">
         <v>1217.3015873015872</v>
@@ -35821,12 +35821,12 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D17" sqref="D17"/>
       <selection pane="topRight" activeCell="D17" sqref="D17"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:G10"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35872,16 +35872,16 @@
         <v>294</v>
       </c>
       <c r="G1" s="554" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="554" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="554" t="s">
-        <v>424</v>
-      </c>
       <c r="I1" s="554" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="554" t="s">
         <v>421</v>
-      </c>
-      <c r="J1" s="554" t="s">
-        <v>422</v>
       </c>
       <c r="K1" s="554" t="s">
         <v>297</v>
@@ -35908,13 +35908,13 @@
         <v>304</v>
       </c>
       <c r="S1" s="554" t="s">
+        <v>429</v>
+      </c>
+      <c r="T1" s="554" t="s">
         <v>430</v>
       </c>
-      <c r="T1" s="554" t="s">
+      <c r="U1" s="554" t="s">
         <v>431</v>
-      </c>
-      <c r="U1" s="554" t="s">
-        <v>432</v>
       </c>
       <c r="V1" s="554" t="s">
         <v>243</v>
@@ -35940,7 +35940,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="551" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="20">
         <v>10953</v>
